--- a/raw_data/20200818_saline/20200818_Sensor3_Test_48.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_48.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815423D-1B69-47A3-BA96-F9B901E3E3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>42860.644447</v>
+        <v>42860.644446999999</v>
       </c>
       <c r="B2" s="1">
         <v>11.905735</v>
       </c>
       <c r="C2" s="1">
-        <v>1156.770000</v>
+        <v>1156.77</v>
       </c>
       <c r="D2" s="1">
-        <v>-242.514000</v>
+        <v>-242.51400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42871.049520</v>
+        <v>42871.04952</v>
       </c>
       <c r="G2" s="1">
-        <v>11.908625</v>
+        <v>11.908625000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1175.030000</v>
+        <v>1175.03</v>
       </c>
       <c r="I2" s="1">
-        <v>-204.580000</v>
+        <v>-204.58</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>42881.533989</v>
+        <v>42881.533989000003</v>
       </c>
       <c r="L2" s="1">
-        <v>11.911537</v>
+        <v>11.911536999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-144.167000</v>
+        <v>-144.167</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>42892.376996</v>
+        <v>42892.376995999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.914549</v>
+        <v>11.914548999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="S2" s="1">
-        <v>-124.224000</v>
+        <v>-124.224</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42902.973525</v>
+        <v>42902.973525000001</v>
       </c>
       <c r="V2" s="1">
         <v>11.917493</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.520000</v>
+        <v>1216.52</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.128000</v>
+        <v>-105.128</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>42913.398477</v>
+        <v>42913.398477000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.920388</v>
+        <v>11.920388000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.646600</v>
+        <v>-89.646600000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>42923.607444</v>
+        <v>42923.607444000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.923224</v>
+        <v>11.923223999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.410000</v>
+        <v>1229.4100000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.829100</v>
+        <v>-85.829099999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>42934.373756</v>
+        <v>42934.373756000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.926215</v>
+        <v>11.926214999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.870000</v>
+        <v>1236.8699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.714000</v>
+        <v>-89.713999999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>42944.627056</v>
+        <v>42944.627055999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.929063</v>
+        <v>11.929062999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.084000</v>
+        <v>-102.084</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>42955.398674</v>
+        <v>42955.398673999996</v>
       </c>
       <c r="AU2" s="1">
         <v>11.932055</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.708000</v>
+        <v>-121.708</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>42966.513026</v>
+        <v>42966.513026000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.935143</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.483000</v>
+        <v>-139.483</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>42977.108563</v>
+        <v>42977.108563000002</v>
       </c>
       <c r="BE2" s="1">
         <v>11.938086</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.770000</v>
+        <v>1303.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.683000</v>
+        <v>-222.68299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>42988.123750</v>
+        <v>42988.123749999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.941145</v>
+        <v>11.941145000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1373.570000</v>
+        <v>1373.57</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.515000</v>
+        <v>-361.51499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>42999.530225</v>
+        <v>42999.530225000002</v>
       </c>
       <c r="BO2" s="1">
         <v>11.944314</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-588.353000</v>
+        <v>-588.35299999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>43009.870808</v>
@@ -691,225 +1107,225 @@
         <v>11.947186</v>
       </c>
       <c r="BU2" s="1">
-        <v>1621.430000</v>
+        <v>1621.43</v>
       </c>
       <c r="BV2" s="1">
-        <v>-845.716000</v>
+        <v>-845.71600000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>43020.257067</v>
+        <v>43020.257066999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.950071</v>
+        <v>11.950070999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1775.460000</v>
+        <v>1775.46</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1124.810000</v>
+        <v>-1124.81</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>43031.159596</v>
+        <v>43031.159595999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.953100</v>
+        <v>11.953099999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2201.400000</v>
+        <v>2201.4</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1803.580000</v>
+        <v>-1803.58</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>42861.009038</v>
+        <v>42861.009037999997</v>
       </c>
       <c r="B3" s="1">
-        <v>11.905836</v>
+        <v>11.905836000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1156.900000</v>
+        <v>1156.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-242.591000</v>
+        <v>-242.59100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>42871.772688</v>
+        <v>42871.772687999997</v>
       </c>
       <c r="G3" s="1">
-        <v>11.908826</v>
+        <v>11.908825999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1175.560000</v>
+        <v>1175.56</v>
       </c>
       <c r="I3" s="1">
-        <v>-204.044000</v>
+        <v>-204.04400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>42882.257650</v>
+        <v>42882.25765</v>
       </c>
       <c r="L3" s="1">
         <v>11.911738</v>
       </c>
       <c r="M3" s="1">
-        <v>1200.900000</v>
+        <v>1200.9000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-144.287000</v>
+        <v>-144.28700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>42892.761891</v>
+        <v>42892.761891000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.914656</v>
+        <v>11.914656000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-124.278000</v>
+        <v>-124.27800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>42903.329654</v>
+        <v>42903.329654000001</v>
       </c>
       <c r="V3" s="1">
-        <v>11.917592</v>
+        <v>11.917592000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.400000</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-105.271000</v>
+        <v>-105.271</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>42913.758166</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.920488</v>
+        <v>11.920488000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.815500</v>
+        <v>-89.8155</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>42924.300505</v>
+        <v>42924.300504999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.923417</v>
+        <v>11.923417000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.835200</v>
+        <v>-85.8352</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42934.483869</v>
+        <v>42934.483869000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.926246</v>
+        <v>11.926246000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.850000</v>
+        <v>1236.8499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.717900</v>
+        <v>-89.7179</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>42945.071006</v>
+        <v>42945.071005999998</v>
       </c>
       <c r="AP3" s="1">
         <v>11.929186</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.920000</v>
+        <v>1244.92</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>42955.767234</v>
+        <v>42955.767233999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.932158</v>
+        <v>11.932157999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.711000</v>
+        <v>-121.711</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>42966.877585</v>
+        <v>42966.877585000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.935244</v>
+        <v>11.935244000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>42977.488499</v>
+        <v>42977.488498999999</v>
       </c>
       <c r="BE3" s="1">
         <v>11.938191</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.770000</v>
+        <v>1303.77</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.692000</v>
+        <v>-222.69200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>42988.548788</v>
@@ -918,150 +1334,150 @@
         <v>11.941264</v>
       </c>
       <c r="BK3" s="1">
-        <v>1373.570000</v>
+        <v>1373.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.511000</v>
+        <v>-361.51100000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>42999.645818</v>
+        <v>42999.645817999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.944346</v>
+        <v>11.944345999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-588.331000</v>
+        <v>-588.33100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>43010.011673</v>
+        <v>43010.011673000001</v>
       </c>
       <c r="BT3" s="1">
         <v>11.947225</v>
       </c>
       <c r="BU3" s="1">
-        <v>1621.240000</v>
+        <v>1621.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-845.550000</v>
+        <v>-845.55</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>43020.752042</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.950209</v>
+        <v>11.950208999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1775.440000</v>
+        <v>1775.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1124.780000</v>
+        <v>-1124.78</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>43031.722557</v>
+        <v>43031.722557000001</v>
       </c>
       <c r="CD3" s="1">
         <v>11.953256</v>
       </c>
       <c r="CE3" s="1">
-        <v>2199.260000</v>
+        <v>2199.2600000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1804.100000</v>
+        <v>-1804.1</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>42861.693980</v>
+        <v>42861.693979999996</v>
       </c>
       <c r="B4" s="1">
-        <v>11.906026</v>
+        <v>11.906026000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1156.530000</v>
+        <v>1156.53</v>
       </c>
       <c r="D4" s="1">
-        <v>-242.623000</v>
+        <v>-242.62299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>42872.117915</v>
+        <v>42872.117915000003</v>
       </c>
       <c r="G4" s="1">
         <v>11.908922</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.950000</v>
+        <v>1173.95</v>
       </c>
       <c r="I4" s="1">
-        <v>-204.578000</v>
+        <v>-204.578</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>42882.605810</v>
+        <v>42882.605810000001</v>
       </c>
       <c r="L4" s="1">
         <v>11.911835</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="N4" s="1">
-        <v>-144.392000</v>
+        <v>-144.392</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>42893.111076</v>
+        <v>42893.111076000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.914753</v>
+        <v>11.914752999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-124.220000</v>
+        <v>-124.22</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>42903.984372</v>
+        <v>42903.984371999999</v>
       </c>
       <c r="V4" s="1">
         <v>11.917773</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.230000</v>
+        <v>1216.23</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.155000</v>
+        <v>-105.155</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>42914.420694</v>
@@ -1070,73 +1486,73 @@
         <v>11.920672</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.726800</v>
+        <v>-89.726799999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>42924.674489</v>
+        <v>42924.674488999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.923521</v>
+        <v>11.923520999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.878900</v>
+        <v>-85.878900000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>42934.826639</v>
+        <v>42934.826638999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.926341</v>
+        <v>11.926341000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.840000</v>
+        <v>1236.8399999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.734500</v>
+        <v>-89.734499999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>42945.429581</v>
+        <v>42945.429580999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.929286</v>
+        <v>11.929285999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.077000</v>
+        <v>-102.077</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>42956.131759</v>
+        <v>42956.131759000004</v>
       </c>
       <c r="AU4" s="1">
         <v>11.932259</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.683000</v>
+        <v>-121.68300000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>42967.299713</v>
@@ -1145,240 +1561,240 @@
         <v>11.935361</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.465000</v>
+        <v>-139.465</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>42977.922002</v>
+        <v>42977.922001999999</v>
       </c>
       <c r="BE4" s="1">
         <v>11.938312</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.760000</v>
+        <v>1303.76</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.674000</v>
+        <v>-222.67400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>42988.878628</v>
+        <v>42988.878627999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>11.941355</v>
       </c>
       <c r="BK4" s="1">
-        <v>1373.560000</v>
+        <v>1373.56</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.529000</v>
+        <v>-361.529</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>43000.055479</v>
+        <v>43000.055479000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.944460</v>
+        <v>11.944459999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-588.359000</v>
+        <v>-588.35900000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>43010.422393</v>
+        <v>43010.422393000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.947340</v>
+        <v>11.947340000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.250000</v>
+        <v>1621.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-845.551000</v>
+        <v>-845.55100000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>43021.184057</v>
+        <v>43021.184056999999</v>
       </c>
       <c r="BY4" s="1">
         <v>11.950329</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1124.900000</v>
+        <v>-1124.9000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>43032.310842</v>
+        <v>43032.310841999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.953420</v>
+        <v>11.953419999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2200.350000</v>
+        <v>2200.35</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1805.470000</v>
+        <v>-1805.47</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>42862.035228</v>
+        <v>42862.035228000001</v>
       </c>
       <c r="B5" s="1">
-        <v>11.906121</v>
+        <v>11.906121000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1156.940000</v>
+        <v>1156.94</v>
       </c>
       <c r="D5" s="1">
-        <v>-242.073000</v>
+        <v>-242.07300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>42872.464607</v>
+        <v>42872.464607000002</v>
       </c>
       <c r="G5" s="1">
         <v>11.909018</v>
       </c>
       <c r="H5" s="1">
-        <v>1175.860000</v>
+        <v>1175.8599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-204.671000</v>
+        <v>-204.67099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>42882.953014</v>
+        <v>42882.953013999999</v>
       </c>
       <c r="L5" s="1">
-        <v>11.911931</v>
+        <v>11.911930999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-144.599000</v>
+        <v>-144.59899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>42893.765830</v>
+        <v>42893.765829999997</v>
       </c>
       <c r="Q5" s="1">
         <v>11.914935</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-124.237000</v>
+        <v>-124.23699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>42904.358356</v>
+        <v>42904.358355999997</v>
       </c>
       <c r="V5" s="1">
-        <v>11.917877</v>
+        <v>11.917877000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.290000</v>
+        <v>1216.29</v>
       </c>
       <c r="X5" s="1">
-        <v>-105.285000</v>
+        <v>-105.285</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>42914.801622</v>
+        <v>42914.801621999999</v>
       </c>
       <c r="AA5" s="1">
         <v>11.920778</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.686100</v>
+        <v>-89.686099999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>42925.013789</v>
+        <v>42925.013788999997</v>
       </c>
       <c r="AF5" s="1">
         <v>11.923615</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.858000</v>
+        <v>-85.858000000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42935.173803</v>
+        <v>42935.173802999998</v>
       </c>
       <c r="AK5" s="1">
         <v>11.926437</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.810000</v>
+        <v>1236.81</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.775800</v>
+        <v>-89.775800000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>42945.789678</v>
+        <v>42945.789678000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.929386</v>
+        <v>11.929385999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.930000</v>
+        <v>1244.93</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>42956.561296</v>
@@ -1387,180 +1803,180 @@
         <v>11.932378</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.070000</v>
+        <v>1255.07</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>42967.597809</v>
+        <v>42967.597808999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.935444</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.461000</v>
+        <v>-139.46100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>42978.210178</v>
+        <v>42978.210178000001</v>
       </c>
       <c r="BE5" s="1">
         <v>11.938392</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.760000</v>
+        <v>1303.76</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.677000</v>
+        <v>-222.67699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>42989.256115</v>
+        <v>42989.256114999996</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.941460</v>
+        <v>11.941459999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1373.560000</v>
+        <v>1373.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.501000</v>
+        <v>-361.50099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>43000.454260</v>
+        <v>43000.454259999999</v>
       </c>
       <c r="BO5" s="1">
         <v>11.944571</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.430000</v>
+        <v>1488.43</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-588.360000</v>
+        <v>-588.36</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>43010.857383</v>
+        <v>43010.857383000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.947460</v>
+        <v>11.94746</v>
       </c>
       <c r="BU5" s="1">
-        <v>1621.200000</v>
+        <v>1621.2</v>
       </c>
       <c r="BV5" s="1">
-        <v>-845.516000</v>
+        <v>-845.51599999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>43021.612602</v>
+        <v>43021.612602000001</v>
       </c>
       <c r="BY5" s="1">
         <v>11.950448</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1775.420000</v>
+        <v>1775.42</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1124.790000</v>
+        <v>-1124.79</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>43032.757707</v>
+        <v>43032.757706999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>11.953544</v>
+        <v>11.953544000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2201.620000</v>
+        <v>2201.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1804.910000</v>
+        <v>-1804.91</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>42862.378492</v>
+        <v>42862.378492000003</v>
       </c>
       <c r="B6" s="1">
-        <v>11.906216</v>
+        <v>11.906216000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1156.730000</v>
+        <v>1156.73</v>
       </c>
       <c r="D6" s="1">
-        <v>-242.664000</v>
+        <v>-242.66399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>42873.121341</v>
+        <v>42873.121340999998</v>
       </c>
       <c r="G6" s="1">
-        <v>11.909200</v>
+        <v>11.9092</v>
       </c>
       <c r="H6" s="1">
-        <v>1176.190000</v>
+        <v>1176.19</v>
       </c>
       <c r="I6" s="1">
-        <v>-204.048000</v>
+        <v>-204.048</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>42883.606735</v>
+        <v>42883.606735000001</v>
       </c>
       <c r="L6" s="1">
         <v>11.912113</v>
       </c>
       <c r="M6" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="N6" s="1">
-        <v>-144.184000</v>
+        <v>-144.184</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>42894.154162</v>
+        <v>42894.154161999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.915043</v>
+        <v>11.915043000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>42904.711013</v>
@@ -1569,196 +1985,196 @@
         <v>11.917975</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.234000</v>
+        <v>-105.23399999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>42915.146872</v>
+        <v>42915.146871999998</v>
       </c>
       <c r="AA6" s="1">
         <v>11.920874</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.595400</v>
+        <v>-89.595399999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>42925.359961</v>
+        <v>42925.359961000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.923711</v>
+        <v>11.923711000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.805400</v>
+        <v>-85.805400000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>42935.596923</v>
+        <v>42935.596922999997</v>
       </c>
       <c r="AK6" s="1">
         <v>11.926555</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.820000</v>
+        <v>1236.82</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.804300</v>
+        <v>-89.804299999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>42946.230656</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.929509</v>
+        <v>11.929508999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.930000</v>
+        <v>1244.93</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>42956.860414</v>
+        <v>42956.860414000002</v>
       </c>
       <c r="AU6" s="1">
         <v>11.932461</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.040000</v>
+        <v>1255.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.694000</v>
+        <v>-121.694</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>42967.955424</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.935543</v>
+        <v>11.935542999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.508000</v>
+        <v>-139.50800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>42978.571301</v>
+        <v>42978.571301000004</v>
       </c>
       <c r="BE6" s="1">
         <v>11.938492</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.780000</v>
+        <v>1303.78</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.682000</v>
+        <v>-222.68199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>42989.628580</v>
+        <v>42989.628579999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>11.941563</v>
       </c>
       <c r="BK6" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.521000</v>
+        <v>-361.52100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>43000.880324</v>
+        <v>43000.880323999998</v>
       </c>
       <c r="BO6" s="1">
         <v>11.944689</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.480000</v>
+        <v>1488.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-588.326000</v>
+        <v>-588.32600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>43011.288872</v>
+        <v>43011.288871999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.947580</v>
+        <v>11.94758</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.960000</v>
+        <v>1620.96</v>
       </c>
       <c r="BV6" s="1">
-        <v>-845.560000</v>
+        <v>-845.56</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>43022.023784</v>
+        <v>43022.023783999997</v>
       </c>
       <c r="BY6" s="1">
         <v>11.950562</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1125.100000</v>
+        <v>-1125.0999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>43033.273049</v>
+        <v>43033.273049000003</v>
       </c>
       <c r="CD6" s="1">
         <v>11.953687</v>
       </c>
       <c r="CE6" s="1">
-        <v>2200.440000</v>
+        <v>2200.44</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1803.080000</v>
+        <v>-1803.08</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>42863.037183</v>
       </c>
@@ -1766,73 +2182,73 @@
         <v>11.906399</v>
       </c>
       <c r="C7" s="1">
-        <v>1156.560000</v>
+        <v>1156.56</v>
       </c>
       <c r="D7" s="1">
-        <v>-242.494000</v>
+        <v>-242.494</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>42873.500748</v>
+        <v>42873.500747999999</v>
       </c>
       <c r="G7" s="1">
-        <v>11.909306</v>
+        <v>11.909306000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1175.630000</v>
+        <v>1175.6300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-204.076000</v>
+        <v>-204.07599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>42883.989664</v>
+        <v>42883.989664000001</v>
       </c>
       <c r="L7" s="1">
         <v>11.912219</v>
       </c>
       <c r="M7" s="1">
-        <v>1200.990000</v>
+        <v>1200.99</v>
       </c>
       <c r="N7" s="1">
-        <v>-144.304000</v>
+        <v>-144.304</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>42894.502353</v>
+        <v>42894.502353000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.915140</v>
+        <v>11.915139999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S7" s="1">
-        <v>-124.223000</v>
+        <v>-124.223</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>42905.049283</v>
       </c>
       <c r="V7" s="1">
-        <v>11.918069</v>
+        <v>11.918068999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="X7" s="1">
-        <v>-105.185000</v>
+        <v>-105.185</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>42915.496518</v>
@@ -1841,103 +2257,103 @@
         <v>11.920971</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.709900</v>
+        <v>-89.709900000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>42925.787511</v>
+        <v>42925.787511000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.923830</v>
+        <v>11.923830000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.853200</v>
+        <v>-85.853200000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>42935.878619</v>
+        <v>42935.878619000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.926633</v>
+        <v>11.926633000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.790000</v>
+        <v>1236.79</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.767700</v>
+        <v>-89.767700000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>42946.508416</v>
+        <v>42946.508415999997</v>
       </c>
       <c r="AP7" s="1">
         <v>11.929586</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.069000</v>
+        <v>-102.069</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>42957.224974</v>
+        <v>42957.224973999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.932562</v>
+        <v>11.932562000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.070000</v>
+        <v>1255.07</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>42968.313535</v>
+        <v>42968.313535000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.935643</v>
+        <v>11.935643000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.492000</v>
+        <v>-139.49199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>42978.934337</v>
+        <v>42978.934336999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.938593</v>
+        <v>11.938592999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.669000</v>
+        <v>-222.66900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>42990.402833</v>
@@ -1946,285 +2362,285 @@
         <v>11.941779</v>
       </c>
       <c r="BK7" s="1">
-        <v>1373.570000</v>
+        <v>1373.57</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.497000</v>
+        <v>-361.49700000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>43001.269222</v>
+        <v>43001.269222000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.944797</v>
+        <v>11.944796999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.460000</v>
+        <v>1488.46</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-588.354000</v>
+        <v>-588.35400000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>43011.695094</v>
+        <v>43011.695094000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.947693</v>
+        <v>11.947692999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1621.050000</v>
+        <v>1621.05</v>
       </c>
       <c r="BV7" s="1">
-        <v>-845.355000</v>
+        <v>-845.35500000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>43022.451336</v>
+        <v>43022.451335999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.950681</v>
+        <v>11.950680999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1775.560000</v>
+        <v>1775.56</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1124.960000</v>
+        <v>-1124.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>43034.106328</v>
+        <v>43034.106328000002</v>
       </c>
       <c r="CD7" s="1">
         <v>11.953918</v>
       </c>
       <c r="CE7" s="1">
-        <v>2199.210000</v>
+        <v>2199.21</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1804.990000</v>
+        <v>-1804.99</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>42863.403690</v>
+        <v>42863.403689999999</v>
       </c>
       <c r="B8" s="1">
         <v>11.906501</v>
       </c>
       <c r="C8" s="1">
-        <v>1156.720000</v>
+        <v>1156.72</v>
       </c>
       <c r="D8" s="1">
-        <v>-242.539000</v>
+        <v>-242.53899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>42873.844513</v>
+        <v>42873.844512999996</v>
       </c>
       <c r="G8" s="1">
-        <v>11.909401</v>
+        <v>11.909401000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1175.550000</v>
+        <v>1175.55</v>
       </c>
       <c r="I8" s="1">
-        <v>-204.747000</v>
+        <v>-204.74700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>42884.334366</v>
+        <v>42884.334366000003</v>
       </c>
       <c r="L8" s="1">
         <v>11.912315</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-144.224000</v>
+        <v>-144.22399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>42894.851040</v>
+        <v>42894.851040000001</v>
       </c>
       <c r="Q8" s="1">
         <v>11.915236</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-124.262000</v>
+        <v>-124.262</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>42905.472372</v>
+        <v>42905.472371999997</v>
       </c>
       <c r="V8" s="1">
         <v>11.918187</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.250000</v>
+        <v>1216.25</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.245000</v>
+        <v>-105.245</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>42915.934980</v>
+        <v>42915.934979999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.921093</v>
+        <v>11.921093000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.644500</v>
+        <v>-89.644499999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>42926.075725</v>
+        <v>42926.075725000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.923910</v>
+        <v>11.923909999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.866600</v>
+        <v>-85.866600000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>42936.226810</v>
+        <v>42936.22681</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.926730</v>
+        <v>11.926729999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.830000</v>
+        <v>1236.83</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.744400</v>
+        <v>-89.744399999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>42946.873964</v>
+        <v>42946.873963999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.929687</v>
+        <v>11.929686999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.940000</v>
+        <v>1244.94</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>42957.591029</v>
+        <v>42957.591029000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.932664</v>
+        <v>11.932664000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.080000</v>
+        <v>1255.08</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.680000</v>
+        <v>-121.68</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>42969.034190</v>
+        <v>42969.034189999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.935843</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.473000</v>
+        <v>-139.47300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>42979.654034</v>
+        <v>42979.654033999999</v>
       </c>
       <c r="BE8" s="1">
         <v>11.938793</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.643000</v>
+        <v>-222.643</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>42990.777350</v>
+        <v>42990.777349999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.941883</v>
+        <v>11.941883000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1373.540000</v>
+        <v>1373.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.518000</v>
+        <v>-361.51799999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>43001.690290</v>
+        <v>43001.690289999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.944914</v>
+        <v>11.944914000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.440000</v>
+        <v>1488.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-588.427000</v>
+        <v>-588.42700000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>43012.126119</v>
@@ -2233,75 +2649,75 @@
         <v>11.947813</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.970000</v>
+        <v>1620.97</v>
       </c>
       <c r="BV8" s="1">
-        <v>-845.387000</v>
+        <v>-845.38699999999994</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>43023.178999</v>
+        <v>43023.178999000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.950883</v>
+        <v>11.950882999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1124.820000</v>
+        <v>-1124.82</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>43034.341466</v>
+        <v>43034.341465999998</v>
       </c>
       <c r="CD8" s="1">
         <v>11.953984</v>
       </c>
       <c r="CE8" s="1">
-        <v>2201.870000</v>
+        <v>2201.87</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1805.290000</v>
+        <v>-1805.29</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>42863.741467</v>
       </c>
       <c r="B9" s="1">
-        <v>11.906595</v>
+        <v>11.906594999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1156.960000</v>
+        <v>1156.96</v>
       </c>
       <c r="D9" s="1">
-        <v>-242.191000</v>
+        <v>-242.191</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>42874.193693</v>
+        <v>42874.193693000001</v>
       </c>
       <c r="G9" s="1">
-        <v>11.909498</v>
+        <v>11.909497999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1175.660000</v>
+        <v>1175.6600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-204.414000</v>
+        <v>-204.41399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>42884.752494</v>
@@ -2310,345 +2726,345 @@
         <v>11.912431</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="N9" s="1">
-        <v>-144.379000</v>
+        <v>-144.37899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>42895.274632</v>
+        <v>42895.274632000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.915354</v>
+        <v>11.915354000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-124.258000</v>
+        <v>-124.258</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>42905.748178</v>
+        <v>42905.748178000002</v>
       </c>
       <c r="V9" s="1">
         <v>11.918263</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.400000</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.089000</v>
+        <v>-105.089</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>42916.202325</v>
+        <v>42916.202324999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.921167</v>
+        <v>11.921167000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.584900</v>
+        <v>-89.584900000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>42926.418422</v>
+        <v>42926.418422000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.924005</v>
+        <v>11.924004999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.839700</v>
+        <v>-85.839699999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>42936.575028</v>
+        <v>42936.575027999999</v>
       </c>
       <c r="AK9" s="1">
         <v>11.926826</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.830000</v>
+        <v>1236.83</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.734700</v>
+        <v>-89.734700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>42947.229564</v>
+        <v>42947.229564000001</v>
       </c>
       <c r="AP9" s="1">
         <v>11.929786</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>42958.326558</v>
+        <v>42958.326558000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.932868</v>
+        <v>11.932867999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.689000</v>
+        <v>-121.68899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>42969.414127</v>
+        <v>42969.414126999996</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.935948</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.491000</v>
+        <v>-139.49100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>42980.016111</v>
+        <v>42980.016110999997</v>
       </c>
       <c r="BE9" s="1">
         <v>11.938893</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.683000</v>
+        <v>-222.68299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>42991.156257</v>
+        <v>42991.156257000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.941988</v>
       </c>
       <c r="BK9" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.502000</v>
+        <v>-361.50200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>43002.394610</v>
+        <v>43002.394610000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.945110</v>
+        <v>11.94511</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.490000</v>
+        <v>1488.49</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-588.342000</v>
+        <v>-588.34199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>43012.865164</v>
+        <v>43012.865164000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.948018</v>
+        <v>11.948017999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1621.040000</v>
+        <v>1621.04</v>
       </c>
       <c r="BV9" s="1">
-        <v>-845.194000</v>
+        <v>-845.19399999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>43023.318377</v>
+        <v>43023.318377000003</v>
       </c>
       <c r="BY9" s="1">
         <v>11.950922</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1775.470000</v>
+        <v>1775.47</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1124.940000</v>
+        <v>-1124.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>43034.876647</v>
+        <v>43034.876646999997</v>
       </c>
       <c r="CD9" s="1">
         <v>11.954132</v>
       </c>
       <c r="CE9" s="1">
-        <v>2199.930000</v>
+        <v>2199.9299999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1803.440000</v>
+        <v>-1803.44</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>42864.082748</v>
+        <v>42864.082748000001</v>
       </c>
       <c r="B10" s="1">
-        <v>11.906690</v>
+        <v>11.906689999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1156.730000</v>
+        <v>1156.73</v>
       </c>
       <c r="D10" s="1">
-        <v>-242.479000</v>
+        <v>-242.47900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>42874.622699</v>
       </c>
       <c r="G10" s="1">
-        <v>11.909617</v>
+        <v>11.909617000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1175.860000</v>
+        <v>1175.8599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-204.270000</v>
+        <v>-204.27</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>42885.047149</v>
+        <v>42885.047148999998</v>
       </c>
       <c r="L10" s="1">
-        <v>11.912513</v>
+        <v>11.912513000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1200.830000</v>
+        <v>1200.83</v>
       </c>
       <c r="N10" s="1">
-        <v>-144.174000</v>
+        <v>-144.17400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>42895.555855</v>
+        <v>42895.555854999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.915432</v>
+        <v>11.915431999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="S10" s="1">
-        <v>-124.234000</v>
+        <v>-124.23399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>42906.090421</v>
+        <v>42906.090421000001</v>
       </c>
       <c r="V10" s="1">
         <v>11.918358</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.315000</v>
+        <v>-105.315</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>42916.549029</v>
+        <v>42916.549029000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.921264</v>
+        <v>11.921264000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.722300</v>
+        <v>-89.722300000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>42926.764662</v>
+        <v>42926.764662000001</v>
       </c>
       <c r="AF10" s="1">
         <v>11.924101</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.847900</v>
+        <v>-85.847899999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>42937.272872</v>
+        <v>42937.272872000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.927020</v>
+        <v>11.927020000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.770000</v>
+        <v>1236.77</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.757200</v>
+        <v>-89.757199999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>42947.955297</v>
@@ -2657,437 +3073,437 @@
         <v>11.929988</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.062000</v>
+        <v>-102.062</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>42958.709469</v>
+        <v>42958.709469000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.932975</v>
+        <v>11.932975000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.684000</v>
+        <v>-121.684</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>42969.788605</v>
+        <v>42969.788605000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.936052</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.493000</v>
+        <v>-139.49299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>42980.376207</v>
+        <v>42980.376207000001</v>
       </c>
       <c r="BE10" s="1">
         <v>11.938993</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.681000</v>
+        <v>-222.68100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>42991.864544</v>
+        <v>42991.864543999996</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.942185</v>
       </c>
       <c r="BK10" s="1">
-        <v>1373.570000</v>
+        <v>1373.57</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.514000</v>
+        <v>-361.51400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>43002.523108</v>
+        <v>43002.523108000001</v>
       </c>
       <c r="BO10" s="1">
         <v>11.945145</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.490000</v>
+        <v>1488.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-588.362000</v>
+        <v>-588.36199999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>43012.997124</v>
+        <v>43012.997124000001</v>
       </c>
       <c r="BT10" s="1">
         <v>11.948055</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.970000</v>
+        <v>1620.97</v>
       </c>
       <c r="BV10" s="1">
-        <v>-845.136000</v>
+        <v>-845.13599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>43023.737463</v>
+        <v>43023.737462999998</v>
       </c>
       <c r="BY10" s="1">
         <v>11.951038</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1775.480000</v>
+        <v>1775.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1124.930000</v>
+        <v>-1124.93</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>43035.414054</v>
+        <v>43035.414054000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>11.954282</v>
+        <v>11.954281999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2200.160000</v>
+        <v>2200.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1805.780000</v>
+        <v>-1805.78</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>42864.507289</v>
+        <v>42864.507289000001</v>
       </c>
       <c r="B11" s="1">
         <v>11.906808</v>
       </c>
       <c r="C11" s="1">
-        <v>1156.790000</v>
+        <v>1156.79</v>
       </c>
       <c r="D11" s="1">
-        <v>-242.399000</v>
+        <v>-242.399</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>42874.897515</v>
+        <v>42874.897514999997</v>
       </c>
       <c r="G11" s="1">
         <v>11.909694</v>
       </c>
       <c r="H11" s="1">
-        <v>1175.280000</v>
+        <v>1175.28</v>
       </c>
       <c r="I11" s="1">
-        <v>-204.070000</v>
+        <v>-204.07</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>42885.389884</v>
+        <v>42885.389883999997</v>
       </c>
       <c r="L11" s="1">
-        <v>11.912608</v>
+        <v>11.912608000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="N11" s="1">
-        <v>-144.293000</v>
+        <v>-144.29300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>42895.905071</v>
+        <v>42895.905071000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.915529</v>
+        <v>11.915528999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.610000</v>
+        <v>1208.6099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-124.207000</v>
+        <v>-124.20699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>42906.435601</v>
+        <v>42906.435600999997</v>
       </c>
       <c r="V11" s="1">
-        <v>11.918454</v>
+        <v>11.918454000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.238000</v>
+        <v>-105.238</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>42917.132323</v>
+        <v>42917.132322999998</v>
       </c>
       <c r="AA11" s="1">
         <v>11.921426</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.689000</v>
+        <v>-89.688999999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>42927.450102</v>
+        <v>42927.450102000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.924292</v>
+        <v>11.924291999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.360000</v>
+        <v>1229.3599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.785100</v>
+        <v>-85.7851</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>42937.622056</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.927117</v>
+        <v>11.927117000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.840000</v>
+        <v>1236.8399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.757400</v>
+        <v>-89.757400000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>42948.337627</v>
+        <v>42948.337627000001</v>
       </c>
       <c r="AP11" s="1">
         <v>11.930094</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.930000</v>
+        <v>1244.93</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>42959.076508</v>
+        <v>42959.076507999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.933077</v>
+        <v>11.933077000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.697000</v>
+        <v>-121.697</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>42970.460188</v>
+        <v>42970.460187999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.936239</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.472000</v>
+        <v>-139.47200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>42981.053248</v>
+        <v>42981.053247999997</v>
       </c>
       <c r="BE11" s="1">
         <v>11.939181</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.663000</v>
+        <v>-222.66300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>42992.303536</v>
+        <v>42992.303535999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.942307</v>
       </c>
       <c r="BK11" s="1">
-        <v>1373.580000</v>
+        <v>1373.58</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.505000</v>
+        <v>-361.505</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>43002.930820</v>
+        <v>43002.930820000001</v>
       </c>
       <c r="BO11" s="1">
         <v>11.945259</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.430000</v>
+        <v>1488.43</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-588.400000</v>
+        <v>-588.4</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>43013.410788</v>
+        <v>43013.410788000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.948170</v>
+        <v>11.948169999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.910000</v>
+        <v>1620.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-845.100000</v>
+        <v>-845.1</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>43024.162565</v>
+        <v>43024.162564999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.951156</v>
+        <v>11.951155999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1775.550000</v>
+        <v>1775.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1125.000000</v>
+        <v>-1125</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>43035.954917</v>
+        <v>43035.954917000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.954432</v>
+        <v>11.954432000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2201.900000</v>
+        <v>2201.9</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1804.260000</v>
+        <v>-1804.26</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>42864.783065</v>
+        <v>42864.783065000003</v>
       </c>
       <c r="B12" s="1">
         <v>11.906884</v>
       </c>
       <c r="C12" s="1">
-        <v>1156.750000</v>
+        <v>1156.75</v>
       </c>
       <c r="D12" s="1">
-        <v>-242.510000</v>
+        <v>-242.51</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>42875.241739</v>
+        <v>42875.241738999997</v>
       </c>
       <c r="G12" s="1">
         <v>11.909789</v>
       </c>
       <c r="H12" s="1">
-        <v>1175.140000</v>
+        <v>1175.1400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-204.667000</v>
+        <v>-204.667</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>42885.737085</v>
+        <v>42885.737085000001</v>
       </c>
       <c r="L12" s="1">
-        <v>11.912705</v>
+        <v>11.912705000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-144.346000</v>
+        <v>-144.346</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>42896.251742</v>
@@ -3096,178 +3512,178 @@
         <v>11.915625</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-124.141000</v>
+        <v>-124.14100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>42907.119120</v>
+        <v>42907.119120000003</v>
       </c>
       <c r="V12" s="1">
         <v>11.918644</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.430000</v>
+        <v>1216.43</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.066000</v>
+        <v>-105.066</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>42917.248386</v>
+        <v>42917.248385999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.921458</v>
+        <v>11.921457999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.689300</v>
+        <v>-89.689300000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>42927.791385</v>
+        <v>42927.791384999997</v>
       </c>
       <c r="AF12" s="1">
         <v>11.924386</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.846500</v>
+        <v>-85.846500000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>42937.968296</v>
+        <v>42937.968295999999</v>
       </c>
       <c r="AK12" s="1">
         <v>11.927213</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.820000</v>
+        <v>1236.82</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.749500</v>
+        <v>-89.749499999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>42948.722522</v>
+        <v>42948.722521999996</v>
       </c>
       <c r="AP12" s="1">
         <v>11.930201</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>42959.754056</v>
+        <v>42959.754055999998</v>
       </c>
       <c r="AU12" s="1">
         <v>11.933265</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.020000</v>
+        <v>1255.02</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.694000</v>
+        <v>-121.694</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>42970.871372</v>
+        <v>42970.871372000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>11.936353</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.489000</v>
+        <v>-139.489</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>42981.491711</v>
+        <v>42981.491711000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>11.939303</v>
+        <v>11.939303000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.760000</v>
+        <v>1303.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.661000</v>
+        <v>-222.661</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>42992.706255</v>
+        <v>42992.706254999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.942418</v>
       </c>
       <c r="BK12" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.525000</v>
+        <v>-361.52499999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>43003.330096</v>
+        <v>43003.330095999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.945369</v>
+        <v>11.945368999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-588.371000</v>
+        <v>-588.37099999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>43013.840326</v>
+        <v>43013.840325999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.948289</v>
+        <v>11.948289000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1621.100000</v>
+        <v>1621.1</v>
       </c>
       <c r="BV12" s="1">
-        <v>-845.041000</v>
+        <v>-845.04100000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>43024.587109</v>
@@ -3276,180 +3692,180 @@
         <v>11.951274</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1775.450000</v>
+        <v>1775.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1124.810000</v>
+        <v>-1124.81</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>43036.493614</v>
+        <v>43036.493613999999</v>
       </c>
       <c r="CD12" s="1">
         <v>11.954582</v>
       </c>
       <c r="CE12" s="1">
-        <v>2198.690000</v>
+        <v>2198.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1804.950000</v>
+        <v>-1804.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>42865.122329</v>
+        <v>42865.122328999998</v>
       </c>
       <c r="B13" s="1">
-        <v>11.906978</v>
+        <v>11.906978000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1156.850000</v>
+        <v>1156.8499999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-242.157000</v>
+        <v>-242.15700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>42875.587418</v>
+        <v>42875.587418000003</v>
       </c>
       <c r="G13" s="1">
-        <v>11.909885</v>
+        <v>11.909884999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1175.900000</v>
+        <v>1175.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-204.704000</v>
+        <v>-204.70400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>42886.429995</v>
+        <v>42886.429994999999</v>
       </c>
       <c r="L13" s="1">
-        <v>11.912897</v>
+        <v>11.912896999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="N13" s="1">
-        <v>-144.225000</v>
+        <v>-144.22499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>42896.949615</v>
+        <v>42896.949614999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.915819</v>
+        <v>11.915819000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S13" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>42907.462321</v>
+        <v>42907.462320999999</v>
       </c>
       <c r="V13" s="1">
-        <v>11.918740</v>
+        <v>11.91874</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.136000</v>
+        <v>-105.136</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>42917.593138</v>
+        <v>42917.593137999997</v>
       </c>
       <c r="AA13" s="1">
         <v>11.921554</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.734200</v>
+        <v>-89.734200000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>42928.137060</v>
+        <v>42928.137060000001</v>
       </c>
       <c r="AF13" s="1">
         <v>11.924483</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.790400</v>
+        <v>-85.790400000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>42938.628967</v>
+        <v>42938.628966999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.927397</v>
+        <v>11.927396999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.820000</v>
+        <v>1236.82</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.739300</v>
+        <v>-89.7393</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>42949.397080</v>
+        <v>42949.397080000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.930388</v>
+        <v>11.930388000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.005000</v>
+        <v>-102.005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>42960.195018</v>
+        <v>42960.195017999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.933388</v>
+        <v>11.933388000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.689000</v>
+        <v>-121.68899999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>42971.250345</v>
@@ -3458,270 +3874,270 @@
         <v>11.936458</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.480000</v>
+        <v>1263.48</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.504000</v>
+        <v>-139.50399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>42981.863709</v>
+        <v>42981.863708999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.939407</v>
+        <v>11.939406999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.679000</v>
+        <v>-222.679</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>42993.083247</v>
+        <v>42993.083247000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.942523</v>
       </c>
       <c r="BK13" s="1">
-        <v>1373.570000</v>
+        <v>1373.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.525000</v>
+        <v>-361.52499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>43003.758644</v>
+        <v>43003.758644000001</v>
       </c>
       <c r="BO13" s="1">
         <v>11.945489</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-588.353000</v>
+        <v>-588.35299999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>43014.273794</v>
+        <v>43014.273794000001</v>
       </c>
       <c r="BT13" s="1">
         <v>11.948409</v>
       </c>
       <c r="BU13" s="1">
-        <v>1621.080000</v>
+        <v>1621.08</v>
       </c>
       <c r="BV13" s="1">
-        <v>-844.953000</v>
+        <v>-844.95299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>43025.028052</v>
+        <v>43025.028052000001</v>
       </c>
       <c r="BY13" s="1">
         <v>11.951397</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1775.400000</v>
+        <v>1775.4</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1124.980000</v>
+        <v>-1124.98</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>43037.035738</v>
+        <v>43037.035737999999</v>
       </c>
       <c r="CD13" s="1">
         <v>11.954732</v>
       </c>
       <c r="CE13" s="1">
-        <v>2201.200000</v>
+        <v>2201.1999999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1805.210000</v>
+        <v>-1805.21</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>42865.462450</v>
+        <v>42865.462449999999</v>
       </c>
       <c r="B14" s="1">
         <v>11.907073</v>
       </c>
       <c r="C14" s="1">
-        <v>1156.610000</v>
+        <v>1156.6099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-242.315000</v>
+        <v>-242.315</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>42876.273881</v>
+        <v>42876.273881000001</v>
       </c>
       <c r="G14" s="1">
         <v>11.910076</v>
       </c>
       <c r="H14" s="1">
-        <v>1175.850000</v>
+        <v>1175.8499999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-204.352000</v>
+        <v>-204.352</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>42886.773195</v>
+        <v>42886.773195000002</v>
       </c>
       <c r="L14" s="1">
         <v>11.912993</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N14" s="1">
-        <v>-144.314000</v>
+        <v>-144.31399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>42897.300285</v>
+        <v>42897.300284999998</v>
       </c>
       <c r="Q14" s="1">
         <v>11.915917</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="S14" s="1">
-        <v>-124.202000</v>
+        <v>-124.202</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>42907.811007</v>
+        <v>42907.811006999997</v>
       </c>
       <c r="V14" s="1">
-        <v>11.918836</v>
+        <v>11.918836000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="X14" s="1">
-        <v>-105.228000</v>
+        <v>-105.22799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>42918.250801</v>
+        <v>42918.250801000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.921736</v>
+        <v>11.921735999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.670900</v>
+        <v>-89.670900000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>42928.800213</v>
+        <v>42928.800213000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.924667</v>
+        <v>11.924666999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.855400</v>
+        <v>-85.855400000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>42939.012875</v>
       </c>
       <c r="AK14" s="1">
-        <v>11.927504</v>
+        <v>11.927504000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.810000</v>
+        <v>1236.81</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.724800</v>
+        <v>-89.724800000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>42949.800364</v>
+        <v>42949.800364000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.930500</v>
+        <v>11.9305</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.057000</v>
+        <v>-102.057</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>42960.555081</v>
+        <v>42960.555080999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.933488</v>
+        <v>11.933488000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.701000</v>
+        <v>-121.70099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>42971.627275</v>
+        <v>42971.627274999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.936563</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.497000</v>
+        <v>-139.49700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>42982.209917</v>
@@ -3730,58 +4146,58 @@
         <v>11.939503</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.693000</v>
+        <v>-222.69300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>42993.516756</v>
+        <v>42993.516755999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>11.942644</v>
       </c>
       <c r="BK14" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.506000</v>
+        <v>-361.50599999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>43004.147473</v>
+        <v>43004.147472999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.945597</v>
+        <v>11.945596999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.430000</v>
+        <v>1488.43</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-588.353000</v>
+        <v>-588.35299999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>43014.672578</v>
+        <v>43014.672577999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.948520</v>
+        <v>11.94852</v>
       </c>
       <c r="BU14" s="1">
-        <v>1621.020000</v>
+        <v>1621.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-844.843000</v>
+        <v>-844.84299999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>43025.446678</v>
@@ -3790,31 +4206,31 @@
         <v>11.951513</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1775.510000</v>
+        <v>1775.51</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1124.960000</v>
+        <v>-1124.96</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>43037.575881</v>
+        <v>43037.575880999997</v>
       </c>
       <c r="CD14" s="1">
         <v>11.954882</v>
       </c>
       <c r="CE14" s="1">
-        <v>2199.980000</v>
+        <v>2199.98</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1803.560000</v>
+        <v>-1803.56</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>42866.147094</v>
       </c>
@@ -3822,88 +4238,88 @@
         <v>11.907263</v>
       </c>
       <c r="C15" s="1">
-        <v>1156.630000</v>
+        <v>1156.6300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-242.472000</v>
+        <v>-242.47200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>42876.618633</v>
+        <v>42876.618632999998</v>
       </c>
       <c r="G15" s="1">
-        <v>11.910172</v>
+        <v>11.910171999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1175.300000</v>
+        <v>1175.3</v>
       </c>
       <c r="I15" s="1">
-        <v>-204.358000</v>
+        <v>-204.358</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>42887.123868</v>
+        <v>42887.123868000002</v>
       </c>
       <c r="L15" s="1">
-        <v>11.913090</v>
+        <v>11.91309</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.980000</v>
+        <v>1200.98</v>
       </c>
       <c r="N15" s="1">
-        <v>-144.142000</v>
+        <v>-144.142</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>42897.647982</v>
+        <v>42897.647982000002</v>
       </c>
       <c r="Q15" s="1">
         <v>11.916013</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-124.235000</v>
+        <v>-124.235</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>42908.471182</v>
+        <v>42908.471182000001</v>
       </c>
       <c r="V15" s="1">
-        <v>11.919020</v>
+        <v>11.91902</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.360000</v>
+        <v>1216.3599999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-105.177000</v>
+        <v>-105.17700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>42918.642177</v>
+        <v>42918.642177000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.921845</v>
+        <v>11.921844999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.604400</v>
+        <v>-89.604399999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>42929.174196</v>
@@ -3912,512 +4328,512 @@
         <v>11.924771</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.818000</v>
+        <v>-85.817999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>42939.363511</v>
+        <v>42939.363511000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.927601</v>
+        <v>11.927600999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.800000</v>
+        <v>1236.8</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.773100</v>
+        <v>-89.773099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>42950.189191</v>
+        <v>42950.189190999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.930608</v>
+        <v>11.930607999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.055000</v>
+        <v>-102.05500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>42960.922618</v>
+        <v>42960.922617999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.933590</v>
+        <v>11.933590000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.713000</v>
+        <v>-121.71299999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>42972.045898</v>
+        <v>42972.045897999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.936679</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.505000</v>
+        <v>-139.505</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>42982.939532</v>
+        <v>42982.939531999997</v>
       </c>
       <c r="BE15" s="1">
         <v>11.939705</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.663000</v>
+        <v>-222.66300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>42993.857470</v>
+        <v>42993.857470000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.942738</v>
       </c>
       <c r="BK15" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.522000</v>
+        <v>-361.52199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>43004.565104</v>
+        <v>43004.565104000001</v>
       </c>
       <c r="BO15" s="1">
         <v>11.945713</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-588.382000</v>
+        <v>-588.38199999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>43015.085258</v>
+        <v>43015.085257999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.948635</v>
+        <v>11.948634999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1621.190000</v>
+        <v>1621.19</v>
       </c>
       <c r="BV15" s="1">
-        <v>-844.906000</v>
+        <v>-844.90599999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>43025.871747</v>
+        <v>43025.871746999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.951631</v>
+        <v>11.951631000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1775.350000</v>
+        <v>1775.35</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1125.090000</v>
+        <v>-1125.0899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>43038.113829</v>
+        <v>43038.113829000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.955032</v>
+        <v>11.955031999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2199.530000</v>
+        <v>2199.5300000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1805.820000</v>
+        <v>-1805.82</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>42866.489334</v>
+        <v>42866.489333999998</v>
       </c>
       <c r="B16" s="1">
         <v>11.907358</v>
       </c>
       <c r="C16" s="1">
-        <v>1156.680000</v>
+        <v>1156.68</v>
       </c>
       <c r="D16" s="1">
-        <v>-242.275000</v>
+        <v>-242.27500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>42876.965305</v>
+        <v>42876.965304999998</v>
       </c>
       <c r="G16" s="1">
         <v>11.910268</v>
       </c>
       <c r="H16" s="1">
-        <v>1175.090000</v>
+        <v>1175.0899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-204.341000</v>
+        <v>-204.34100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>42887.785034</v>
       </c>
       <c r="L16" s="1">
-        <v>11.913274</v>
+        <v>11.913273999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="N16" s="1">
-        <v>-144.275000</v>
+        <v>-144.27500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>42898.303227</v>
+        <v>42898.303226999997</v>
       </c>
       <c r="Q16" s="1">
         <v>11.916195</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-124.190000</v>
+        <v>-124.19</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>42908.848144</v>
+        <v>42908.848144000003</v>
       </c>
       <c r="V16" s="1">
         <v>11.919124</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.134000</v>
+        <v>-105.134</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>42918.989344</v>
+        <v>42918.989344000001</v>
       </c>
       <c r="AA16" s="1">
         <v>11.921941</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.700900</v>
+        <v>-89.700900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>42929.521394</v>
+        <v>42929.521394000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.924867</v>
+        <v>11.924867000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.410000</v>
+        <v>1229.4100000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.829500</v>
+        <v>-85.829499999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>42939.712199</v>
+        <v>42939.712199000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.927698</v>
+        <v>11.927697999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.820000</v>
+        <v>1236.82</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.755000</v>
+        <v>-89.754999999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>42950.626166</v>
+        <v>42950.626166000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.930729</v>
+        <v>11.930728999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.940000</v>
+        <v>1244.94</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>42961.335817</v>
+        <v>42961.335816999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.933704</v>
+        <v>11.933704000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.721000</v>
+        <v>-121.721</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>42972.345978</v>
+        <v>42972.345977999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.936763</v>
+        <v>11.936762999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.498000</v>
+        <v>-139.49799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>42983.315997</v>
+        <v>42983.315996999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.939810</v>
+        <v>11.93981</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.709000</v>
+        <v>-222.709</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>42994.232941</v>
+        <v>42994.232941000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.942842</v>
+        <v>11.942842000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1373.540000</v>
+        <v>1373.54</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.518000</v>
+        <v>-361.51799999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>43004.961904</v>
+        <v>43004.961904000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.945823</v>
+        <v>11.945823000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-588.365000</v>
+        <v>-588.36500000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>43015.695330</v>
+        <v>43015.695330000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.948804</v>
+        <v>11.948804000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.250000</v>
+        <v>1621.25</v>
       </c>
       <c r="BV16" s="1">
-        <v>-844.786000</v>
+        <v>-844.78599999999994</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>43026.317650</v>
+        <v>43026.317649999997</v>
       </c>
       <c r="BY16" s="1">
         <v>11.951755</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1775.500000</v>
+        <v>1775.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1124.960000</v>
+        <v>-1124.96</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>43038.655138</v>
+        <v>43038.655138000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.955182</v>
+        <v>11.955182000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2202.110000</v>
+        <v>2202.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1804.450000</v>
+        <v>-1804.45</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>42866.847414</v>
+        <v>42866.847414000003</v>
       </c>
       <c r="B17" s="1">
         <v>11.907458</v>
       </c>
       <c r="C17" s="1">
-        <v>1156.530000</v>
+        <v>1156.53</v>
       </c>
       <c r="D17" s="1">
-        <v>-242.355000</v>
+        <v>-242.35499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>42877.614073</v>
+        <v>42877.614072999997</v>
       </c>
       <c r="G17" s="1">
-        <v>11.910448</v>
+        <v>11.910448000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.810000</v>
+        <v>1174.81</v>
       </c>
       <c r="I17" s="1">
-        <v>-204.093000</v>
+        <v>-204.09299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>42888.157530</v>
+        <v>42888.157529999997</v>
       </c>
       <c r="L17" s="1">
-        <v>11.913377</v>
+        <v>11.913377000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="N17" s="1">
-        <v>-144.281000</v>
+        <v>-144.28100000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>42898.692904</v>
+        <v>42898.692904000003</v>
       </c>
       <c r="Q17" s="1">
         <v>11.916304</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S17" s="1">
-        <v>-124.170000</v>
+        <v>-124.17</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>42909.193853</v>
+        <v>42909.193852999997</v>
       </c>
       <c r="V17" s="1">
         <v>11.919221</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.220000</v>
+        <v>1216.22</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.258000</v>
+        <v>-105.258</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>42919.337536</v>
+        <v>42919.337535999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.922038</v>
+        <v>11.922038000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.480000</v>
+        <v>1224.48</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.612300</v>
+        <v>-89.612300000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>42929.866146</v>
@@ -4426,512 +4842,512 @@
         <v>11.924963</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.883400</v>
+        <v>-85.883399999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>42940.141733</v>
+        <v>42940.141732999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.927817</v>
+        <v>11.927816999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.830000</v>
+        <v>1236.83</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.747700</v>
+        <v>-89.747699999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>42950.909384</v>
+        <v>42950.909383999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>11.930808</v>
+        <v>11.930808000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.011000</v>
+        <v>-102.011</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>42961.654216</v>
+        <v>42961.654216000003</v>
       </c>
       <c r="AU17" s="1">
         <v>11.933793</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.000000</v>
+        <v>1255</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.710000</v>
+        <v>-121.71</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>42972.707097</v>
+        <v>42972.707096999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>11.936863</v>
+        <v>11.936863000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.508000</v>
+        <v>-139.50800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>42983.694939</v>
+        <v>42983.694939000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.939915</v>
+        <v>11.939914999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.651000</v>
+        <v>-222.65100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>42994.607916</v>
+        <v>42994.607916000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.942947</v>
       </c>
       <c r="BK17" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.519000</v>
+        <v>-361.51900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>43005.386976</v>
+        <v>43005.386976000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.945941</v>
+        <v>11.945940999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.430000</v>
+        <v>1488.43</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-588.396000</v>
+        <v>-588.39599999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>43015.953280</v>
+        <v>43015.953280000002</v>
       </c>
       <c r="BT17" s="1">
         <v>11.948876</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.340000</v>
+        <v>1621.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-844.797000</v>
+        <v>-844.79700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>43026.749682</v>
+        <v>43026.749682000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.951875</v>
+        <v>11.951874999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1124.890000</v>
+        <v>-1124.8900000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>43039.193827</v>
+        <v>43039.193827000003</v>
       </c>
       <c r="CD17" s="1">
         <v>11.955332</v>
       </c>
       <c r="CE17" s="1">
-        <v>2198.910000</v>
+        <v>2198.91</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1804.590000</v>
+        <v>-1804.59</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>42867.544790</v>
+        <v>42867.54479</v>
       </c>
       <c r="B18" s="1">
         <v>11.907651</v>
       </c>
       <c r="C18" s="1">
-        <v>1156.390000</v>
+        <v>1156.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-242.489000</v>
+        <v>-242.489</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>42877.999959</v>
+        <v>42877.999959000001</v>
       </c>
       <c r="G18" s="1">
         <v>11.910556</v>
       </c>
       <c r="H18" s="1">
-        <v>1175.480000</v>
+        <v>1175.48</v>
       </c>
       <c r="I18" s="1">
-        <v>-203.625000</v>
+        <v>-203.625</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>42888.504761</v>
+        <v>42888.504760999997</v>
       </c>
       <c r="L18" s="1">
-        <v>11.913474</v>
+        <v>11.913474000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.040000</v>
+        <v>1201.04</v>
       </c>
       <c r="N18" s="1">
-        <v>-144.299000</v>
+        <v>-144.29900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>42899.039258</v>
+        <v>42899.039257999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.916400</v>
+        <v>11.916399999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S18" s="1">
-        <v>-124.151000</v>
+        <v>-124.151</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>42909.537085</v>
+        <v>42909.537085000004</v>
       </c>
       <c r="V18" s="1">
         <v>11.919316</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.310000</v>
+        <v>1216.31</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.126000</v>
+        <v>-105.126</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>42919.768095</v>
+        <v>42919.768094999999</v>
       </c>
       <c r="AA18" s="1">
         <v>11.922158</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.727400</v>
+        <v>-89.727400000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>42930.301601</v>
+        <v>42930.301600999999</v>
       </c>
       <c r="AF18" s="1">
         <v>11.925084</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.835200</v>
+        <v>-85.8352</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>42940.419524</v>
+        <v>42940.419523999997</v>
       </c>
       <c r="AK18" s="1">
         <v>11.927894</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.780000</v>
+        <v>1236.78</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.776800</v>
+        <v>-89.776799999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>42951.268517</v>
+        <v>42951.268516999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>11.930908</v>
+        <v>11.930908000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.021000</v>
+        <v>-102.021</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>42962.018809</v>
+        <v>42962.018809000001</v>
       </c>
       <c r="AU18" s="1">
         <v>11.933894</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.000000</v>
+        <v>1255</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.712000</v>
+        <v>-121.712</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>42973.064681</v>
+        <v>42973.064681000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.936962</v>
+        <v>11.936961999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.484000</v>
+        <v>-139.48400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>42984.419595</v>
+        <v>42984.419594999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.940117</v>
+        <v>11.940117000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.680000</v>
+        <v>-222.68</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>42995.347949</v>
+        <v>42995.347949000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.943152</v>
       </c>
       <c r="BK18" s="1">
-        <v>1373.560000</v>
+        <v>1373.56</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.514000</v>
+        <v>-361.51400000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>43005.782321</v>
+        <v>43005.782320999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.946051</v>
+        <v>11.946051000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.440000</v>
+        <v>1488.44</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-588.418000</v>
+        <v>-588.41800000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>43016.365777</v>
+        <v>43016.365776999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.948990</v>
+        <v>11.94899</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.420000</v>
+        <v>1621.42</v>
       </c>
       <c r="BV18" s="1">
-        <v>-844.692000</v>
+        <v>-844.69200000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>43027.161873</v>
+        <v>43027.161872999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.951989</v>
+        <v>11.951988999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1775.440000</v>
+        <v>1775.44</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1125.090000</v>
+        <v>-1125.0899999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>43040.043938</v>
+        <v>43040.043938000003</v>
       </c>
       <c r="CD18" s="1">
         <v>11.955568</v>
       </c>
       <c r="CE18" s="1">
-        <v>2201.580000</v>
+        <v>2201.58</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1803.500000</v>
+        <v>-1803.5</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>42867.887556</v>
+        <v>42867.887556000001</v>
       </c>
       <c r="B19" s="1">
-        <v>11.907747</v>
+        <v>11.907747000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1156.580000</v>
+        <v>1156.58</v>
       </c>
       <c r="D19" s="1">
-        <v>-242.310000</v>
+        <v>-242.31</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>42878.345174</v>
+        <v>42878.345174000002</v>
       </c>
       <c r="G19" s="1">
         <v>11.910651</v>
       </c>
       <c r="H19" s="1">
-        <v>1175.590000</v>
+        <v>1175.5899999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-204.267000</v>
+        <v>-204.267</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>42888.849977</v>
+        <v>42888.849976999998</v>
       </c>
       <c r="L19" s="1">
-        <v>11.913569</v>
+        <v>11.913569000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-144.279000</v>
+        <v>-144.279</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>42899.389930</v>
+        <v>42899.389929999998</v>
       </c>
       <c r="Q19" s="1">
         <v>11.916497</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-124.207000</v>
+        <v>-124.20699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>42909.966125</v>
+        <v>42909.966124999999</v>
       </c>
       <c r="V19" s="1">
         <v>11.919435</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-105.101000</v>
+        <v>-105.101</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>42920.049295</v>
+        <v>42920.049294999997</v>
       </c>
       <c r="AA19" s="1">
         <v>11.922236</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.812200</v>
+        <v>-89.812200000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>42930.564025</v>
@@ -4940,166 +5356,166 @@
         <v>11.925157</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.826200</v>
+        <v>-85.8262</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>42940.772477</v>
+        <v>42940.772476999999</v>
       </c>
       <c r="AK19" s="1">
         <v>11.927992</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.757500</v>
+        <v>-89.757499999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>42951.628619</v>
+        <v>42951.628619000003</v>
       </c>
       <c r="AP19" s="1">
         <v>11.931008</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.940000</v>
+        <v>1244.94</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.997000</v>
+        <v>-101.997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>42962.381847</v>
+        <v>42962.381846999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.933995</v>
+        <v>11.933994999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.020000</v>
+        <v>1255.02</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.725000</v>
+        <v>-121.72499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>42973.780407</v>
+        <v>42973.780406999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.937161</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.543000</v>
+        <v>-139.54300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>42984.781179</v>
+        <v>42984.781178999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.940217</v>
+        <v>11.940217000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.684000</v>
+        <v>-222.684</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>42995.734158</v>
+        <v>42995.734157999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.943259</v>
+        <v>11.943258999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.503000</v>
+        <v>-361.50299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>43006.204422</v>
+        <v>43006.204422000003</v>
       </c>
       <c r="BO19" s="1">
         <v>11.946168</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-588.382000</v>
+        <v>-588.38199999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>43017.100030</v>
+        <v>43017.100030000001</v>
       </c>
       <c r="BT19" s="1">
         <v>11.949194</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.420000</v>
+        <v>1621.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-844.728000</v>
+        <v>-844.72799999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>43027.903856</v>
+        <v>43027.903855999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.952196</v>
+        <v>11.952196000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1775.570000</v>
+        <v>1775.57</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1124.960000</v>
+        <v>-1124.96</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>43040.274080</v>
+        <v>43040.274080000003</v>
       </c>
       <c r="CD19" s="1">
         <v>11.955632</v>
       </c>
       <c r="CE19" s="1">
-        <v>2202.070000</v>
+        <v>2202.0700000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1803.850000</v>
+        <v>-1803.85</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>42868.230787</v>
       </c>
@@ -5107,88 +5523,88 @@
         <v>11.907842</v>
       </c>
       <c r="C20" s="1">
-        <v>1156.860000</v>
+        <v>1156.8599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-242.356000</v>
+        <v>-242.35599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>42878.692373</v>
+        <v>42878.692372999998</v>
       </c>
       <c r="G20" s="1">
         <v>11.910748</v>
       </c>
       <c r="H20" s="1">
-        <v>1175.500000</v>
+        <v>1175.5</v>
       </c>
       <c r="I20" s="1">
-        <v>-204.523000</v>
+        <v>-204.523</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>42889.267577</v>
+        <v>42889.267576999999</v>
       </c>
       <c r="L20" s="1">
-        <v>11.913685</v>
+        <v>11.913684999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="N20" s="1">
-        <v>-144.389000</v>
+        <v>-144.38900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>42899.818474</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.916616</v>
+        <v>11.916615999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S20" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>42910.237437</v>
+        <v>42910.237437000003</v>
       </c>
       <c r="V20" s="1">
-        <v>11.919510</v>
+        <v>11.919510000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.300000</v>
+        <v>1216.3</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.210000</v>
+        <v>-105.21</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>42920.396494</v>
+        <v>42920.396494000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.922332</v>
+        <v>11.922332000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.673300</v>
+        <v>-89.673299999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>42930.906722</v>
@@ -5197,166 +5613,166 @@
         <v>11.925252</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.848600</v>
+        <v>-85.848600000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>42941.117859</v>
+        <v>42941.117858999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.928088</v>
+        <v>11.928088000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.800000</v>
+        <v>1236.8</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.752200</v>
+        <v>-89.752200000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>42952.348773</v>
+        <v>42952.348772999998</v>
       </c>
       <c r="AP20" s="1">
         <v>11.931208</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>42963.111464</v>
+        <v>42963.111464000001</v>
       </c>
       <c r="AU20" s="1">
         <v>11.934198</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.000000</v>
+        <v>1255</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.742000</v>
+        <v>-121.742</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>42974.140040</v>
+        <v>42974.140039999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.937261</v>
+        <v>11.937260999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.509000</v>
+        <v>-139.50899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>42985.141769</v>
+        <v>42985.141769000002</v>
       </c>
       <c r="BE20" s="1">
         <v>11.940317</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.691000</v>
+        <v>-222.691</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>42996.109803</v>
+        <v>42996.109802999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.943364</v>
+        <v>11.943364000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1373.540000</v>
+        <v>1373.54</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.534000</v>
+        <v>-361.53399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>43006.907212</v>
+        <v>43006.907211999998</v>
       </c>
       <c r="BO20" s="1">
         <v>11.946363</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.460000</v>
+        <v>1488.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-588.340000</v>
+        <v>-588.34</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>43017.223503</v>
+        <v>43017.223503000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.949229</v>
+        <v>11.949229000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.500000</v>
+        <v>1621.5</v>
       </c>
       <c r="BV20" s="1">
-        <v>-844.661000</v>
+        <v>-844.66099999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>43028.063072</v>
+        <v>43028.063071999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.952240</v>
+        <v>11.95224</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1775.400000</v>
+        <v>1775.4</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1124.930000</v>
+        <v>-1124.93</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>43040.796368</v>
+        <v>43040.796368000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.955777</v>
+        <v>11.955776999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2199.780000</v>
+        <v>2199.7800000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1803.590000</v>
+        <v>-1803.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>42868.659797</v>
       </c>
@@ -5364,43 +5780,43 @@
         <v>11.907961</v>
       </c>
       <c r="C21" s="1">
-        <v>1156.810000</v>
+        <v>1156.81</v>
       </c>
       <c r="D21" s="1">
-        <v>-242.613000</v>
+        <v>-242.613</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>42879.111493</v>
+        <v>42879.111492999997</v>
       </c>
       <c r="G21" s="1">
         <v>11.910864</v>
       </c>
       <c r="H21" s="1">
-        <v>1175.560000</v>
+        <v>1175.56</v>
       </c>
       <c r="I21" s="1">
-        <v>-204.964000</v>
+        <v>-204.964</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>42889.555255</v>
+        <v>42889.555254999999</v>
       </c>
       <c r="L21" s="1">
         <v>11.913765</v>
       </c>
       <c r="M21" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N21" s="1">
-        <v>-144.139000</v>
+        <v>-144.13900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>42900.111609</v>
@@ -5409,13 +5825,13 @@
         <v>11.916698</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="S21" s="1">
-        <v>-124.247000</v>
+        <v>-124.247</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>42910.581692</v>
@@ -5424,196 +5840,196 @@
         <v>11.919606</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.213000</v>
+        <v>-105.21299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>42920.743694</v>
+        <v>42920.743693999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.922429</v>
+        <v>11.922428999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.718700</v>
+        <v>-89.718699999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>42931.249952</v>
+        <v>42931.249951999998</v>
       </c>
       <c r="AF21" s="1">
         <v>11.925347</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.880000</v>
+        <v>-85.88</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>42941.821683</v>
+        <v>42941.821683000002</v>
       </c>
       <c r="AK21" s="1">
         <v>11.928284</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.754500</v>
+        <v>-89.754499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>42952.710397</v>
+        <v>42952.710397000003</v>
       </c>
       <c r="AP21" s="1">
         <v>11.931308</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.999000</v>
+        <v>-101.999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>42963.495366</v>
+        <v>42963.495366000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.934304</v>
+        <v>11.934303999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.990000</v>
+        <v>1254.99</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.754000</v>
+        <v>-121.754</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>42974.498621</v>
+        <v>42974.498620999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.937361</v>
+        <v>11.937360999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.478000</v>
+        <v>-139.47800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>42985.818501</v>
+        <v>42985.818501000002</v>
       </c>
       <c r="BE21" s="1">
         <v>11.940505</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.680000</v>
+        <v>-222.68</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>42996.796266</v>
+        <v>42996.796265999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.943555</v>
       </c>
       <c r="BK21" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.530000</v>
+        <v>-361.53</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>43007.037198</v>
+        <v>43007.037197999998</v>
       </c>
       <c r="BO21" s="1">
         <v>11.946399</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.390000</v>
+        <v>1488.39</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-588.362000</v>
+        <v>-588.36199999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>43017.631710</v>
+        <v>43017.631710000001</v>
       </c>
       <c r="BT21" s="1">
         <v>11.949342</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.600000</v>
+        <v>1621.6</v>
       </c>
       <c r="BV21" s="1">
-        <v>-844.715000</v>
+        <v>-844.71500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>43028.486160</v>
+        <v>43028.48616</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.952357</v>
+        <v>11.952356999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1124.770000</v>
+        <v>-1124.77</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>43041.314191</v>
+        <v>43041.314190999998</v>
       </c>
       <c r="CD21" s="1">
         <v>11.955921</v>
       </c>
       <c r="CE21" s="1">
-        <v>2200.330000</v>
+        <v>2200.33</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1803.600000</v>
+        <v>-1803.6</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>42868.927635</v>
       </c>
@@ -5621,163 +6037,163 @@
         <v>11.908035</v>
       </c>
       <c r="C22" s="1">
-        <v>1156.860000</v>
+        <v>1156.8599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-242.438000</v>
+        <v>-242.43799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>42879.383829</v>
+        <v>42879.383828999999</v>
       </c>
       <c r="G22" s="1">
-        <v>11.910940</v>
+        <v>11.91094</v>
       </c>
       <c r="H22" s="1">
-        <v>1175.160000</v>
+        <v>1175.1600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-204.207000</v>
+        <v>-204.20699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>42889.906950</v>
+        <v>42889.906949999997</v>
       </c>
       <c r="L22" s="1">
-        <v>11.913863</v>
+        <v>11.913862999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1201.080000</v>
+        <v>1201.08</v>
       </c>
       <c r="N22" s="1">
-        <v>-144.422000</v>
+        <v>-144.422</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>42900.461289</v>
+        <v>42900.461288999999</v>
       </c>
       <c r="Q22" s="1">
         <v>11.916795</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-124.158000</v>
+        <v>-124.158</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>42910.924891</v>
+        <v>42910.924891000002</v>
       </c>
       <c r="V22" s="1">
         <v>11.919701</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.277000</v>
+        <v>-105.277</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>42921.440077</v>
+        <v>42921.440076999999</v>
       </c>
       <c r="AA22" s="1">
         <v>11.922622</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.539800</v>
+        <v>-89.5398</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>42931.938399</v>
+        <v>42931.938398999999</v>
       </c>
       <c r="AF22" s="1">
         <v>11.925538</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.837000</v>
+        <v>-85.837000000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>42942.162930</v>
+        <v>42942.162929999999</v>
       </c>
       <c r="AK22" s="1">
         <v>11.928379</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.780000</v>
+        <v>1236.78</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.772500</v>
+        <v>-89.772499999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>42953.068499</v>
+        <v>42953.068499000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.931408</v>
+        <v>11.931407999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.019000</v>
+        <v>-102.01900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>42963.860951</v>
+        <v>42963.860951000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.934406</v>
+        <v>11.934405999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.780000</v>
+        <v>-121.78</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>42975.173174</v>
+        <v>42975.173174000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.937548</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.485000</v>
+        <v>-139.48500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>42986.242392</v>
@@ -5786,195 +6202,195 @@
         <v>11.940623</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.699000</v>
+        <v>-222.69900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>42997.236713</v>
+        <v>42997.236712999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.943677</v>
+        <v>11.943676999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.537000</v>
+        <v>-361.53699999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>43007.446363</v>
+        <v>43007.446363000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.946513</v>
+        <v>11.946512999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.400000</v>
+        <v>1488.4</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-588.426000</v>
+        <v>-588.42600000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>43018.068687</v>
+        <v>43018.068686999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.949464</v>
+        <v>11.949464000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.760000</v>
+        <v>1621.76</v>
       </c>
       <c r="BV22" s="1">
-        <v>-844.788000</v>
+        <v>-844.78800000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>43028.936064</v>
+        <v>43028.936064000001</v>
       </c>
       <c r="BY22" s="1">
         <v>11.952482</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1775.560000</v>
+        <v>1775.56</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1125.030000</v>
+        <v>-1125.03</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>43041.863760</v>
+        <v>43041.86376</v>
       </c>
       <c r="CD22" s="1">
         <v>11.956073</v>
       </c>
       <c r="CE22" s="1">
-        <v>2201.650000</v>
+        <v>2201.65</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1803.770000</v>
+        <v>-1803.77</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>42869.270893</v>
+        <v>42869.270893000001</v>
       </c>
       <c r="B23" s="1">
-        <v>11.908131</v>
+        <v>11.908130999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1156.650000</v>
+        <v>1156.6500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-242.307000</v>
+        <v>-242.30699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>42879.732026</v>
+        <v>42879.732025999998</v>
       </c>
       <c r="G23" s="1">
         <v>11.911037</v>
       </c>
       <c r="H23" s="1">
-        <v>1175.030000</v>
+        <v>1175.03</v>
       </c>
       <c r="I23" s="1">
-        <v>-203.928000</v>
+        <v>-203.928</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>42890.250679</v>
+        <v>42890.250678999997</v>
       </c>
       <c r="L23" s="1">
         <v>11.913959</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-144.371000</v>
+        <v>-144.37100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>42901.160151</v>
+        <v>42901.160150999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.916989</v>
+        <v>11.916988999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S23" s="1">
-        <v>-124.182000</v>
+        <v>-124.182</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>42911.610363</v>
       </c>
       <c r="V23" s="1">
-        <v>11.919892</v>
+        <v>11.919892000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.380000</v>
+        <v>1216.3800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.043000</v>
+        <v>-105.04300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>42921.787804</v>
       </c>
       <c r="AA23" s="1">
-        <v>11.922719</v>
+        <v>11.922719000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.240000</v>
+        <v>1224.24</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.818800</v>
+        <v>-89.818799999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>42932.283160</v>
+        <v>42932.283159999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.925634</v>
+        <v>11.925634000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.895600</v>
+        <v>-85.895600000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>42942.514098</v>
@@ -5983,315 +6399,315 @@
         <v>11.928476</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.770000</v>
+        <v>1236.77</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.781600</v>
+        <v>-89.781599999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>42953.741540</v>
+        <v>42953.741540000003</v>
       </c>
       <c r="AP23" s="1">
         <v>11.931595</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.005000</v>
+        <v>-102.005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>42964.534980</v>
+        <v>42964.534979999997</v>
       </c>
       <c r="AU23" s="1">
         <v>11.934593</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.020000</v>
+        <v>1255.02</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.732000</v>
+        <v>-121.732</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>42975.575959</v>
+        <v>42975.575959000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11.937660</v>
+        <v>11.937659999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.480000</v>
+        <v>1263.48</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.484000</v>
+        <v>-139.48400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>42986.606456</v>
+        <v>42986.606456000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>11.940724</v>
+        <v>11.940723999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.668000</v>
+        <v>-222.66800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>42997.609705</v>
+        <v>42997.609705000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.943780</v>
+        <v>11.94378</v>
       </c>
       <c r="BK23" s="1">
-        <v>1373.560000</v>
+        <v>1373.56</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.524000</v>
+        <v>-361.524</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>43007.842668</v>
+        <v>43007.842667999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.946623</v>
+        <v>11.946623000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-588.415000</v>
+        <v>-588.41499999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>43018.496771</v>
+        <v>43018.496770999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.949582</v>
+        <v>11.949581999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.820000</v>
+        <v>1621.82</v>
       </c>
       <c r="BV23" s="1">
-        <v>-844.769000</v>
+        <v>-844.76900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>43029.356143</v>
+        <v>43029.356142999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.952599</v>
+        <v>11.952598999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1775.490000</v>
+        <v>1775.49</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1124.900000</v>
+        <v>-1124.9000000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>43042.394012</v>
+        <v>43042.394011999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.956221</v>
+        <v>11.956220999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2199.410000</v>
+        <v>2199.41</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1803.470000</v>
+        <v>-1803.47</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>42869.613105</v>
+        <v>42869.613104999997</v>
       </c>
       <c r="B24" s="1">
-        <v>11.908226</v>
+        <v>11.908226000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1156.610000</v>
+        <v>1156.6099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-242.277000</v>
+        <v>-242.27699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>42880.077860</v>
+        <v>42880.077859999998</v>
       </c>
       <c r="G24" s="1">
         <v>11.911133</v>
       </c>
       <c r="H24" s="1">
-        <v>1175.290000</v>
+        <v>1175.29</v>
       </c>
       <c r="I24" s="1">
-        <v>-203.809000</v>
+        <v>-203.809</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>42890.944582</v>
+        <v>42890.944581999996</v>
       </c>
       <c r="L24" s="1">
         <v>11.914151</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.750000</v>
+        <v>1200.75</v>
       </c>
       <c r="N24" s="1">
-        <v>-144.191000</v>
+        <v>-144.191</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>42901.507352</v>
+        <v>42901.507352000001</v>
       </c>
       <c r="Q24" s="1">
         <v>11.917085</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S24" s="1">
-        <v>-124.216000</v>
+        <v>-124.21599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>42911.956073</v>
+        <v>42911.956073000001</v>
       </c>
       <c r="V24" s="1">
         <v>11.919988</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.440000</v>
+        <v>1216.44</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.126000</v>
+        <v>-105.126</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>42922.138476</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.922816</v>
+        <v>11.922815999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.779300</v>
+        <v>-89.779300000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>42932.626846</v>
+        <v>42932.626845999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.925730</v>
+        <v>11.92573</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.876300</v>
+        <v>-85.876300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>42943.171332</v>
+        <v>42943.171331999998</v>
       </c>
       <c r="AK24" s="1">
         <v>11.928659</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.786400</v>
+        <v>-89.7864</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>42954.180002</v>
+        <v>42954.180002000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.931717</v>
+        <v>11.931717000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.991000</v>
+        <v>-101.991</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>42964.989315</v>
+        <v>42964.989314999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.934719</v>
+        <v>11.934718999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.729000</v>
+        <v>-121.729</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>42975.960325</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.937767</v>
+        <v>11.937766999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.489000</v>
+        <v>-139.489</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>42986.968535</v>
@@ -6300,120 +6716,120 @@
         <v>11.940825</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.664000</v>
+        <v>-222.66399999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>42997.992120</v>
+        <v>42997.992120000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.943887</v>
       </c>
       <c r="BK24" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.539000</v>
+        <v>-361.53899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>43008.265757</v>
+        <v>43008.265757000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.946740</v>
+        <v>11.94674</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-588.404000</v>
+        <v>-588.404</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>43018.906428</v>
+        <v>43018.906428000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.949696</v>
+        <v>11.949695999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.880000</v>
+        <v>1621.88</v>
       </c>
       <c r="BV24" s="1">
-        <v>-844.826000</v>
+        <v>-844.82600000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>43029.789646</v>
+        <v>43029.789645999997</v>
       </c>
       <c r="BY24" s="1">
         <v>11.952719</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1775.430000</v>
+        <v>1775.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1124.940000</v>
+        <v>-1124.94</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>43042.912300</v>
+        <v>43042.912300000004</v>
       </c>
       <c r="CD24" s="1">
         <v>11.956365</v>
       </c>
       <c r="CE24" s="1">
-        <v>2199.740000</v>
+        <v>2199.7399999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1805.780000</v>
+        <v>-1805.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>42870.274769</v>
+        <v>42870.274769000003</v>
       </c>
       <c r="B25" s="1">
-        <v>11.908410</v>
+        <v>11.90841</v>
       </c>
       <c r="C25" s="1">
-        <v>1156.860000</v>
+        <v>1156.8599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-242.128000</v>
+        <v>-242.12799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>42880.770147</v>
+        <v>42880.770147000003</v>
       </c>
       <c r="G25" s="1">
         <v>11.911325</v>
       </c>
       <c r="H25" s="1">
-        <v>1175.310000</v>
+        <v>1175.31</v>
       </c>
       <c r="I25" s="1">
-        <v>-204.773000</v>
+        <v>-204.773</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>42891.288773</v>
@@ -6422,270 +6838,270 @@
         <v>11.914247</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="N25" s="1">
-        <v>-144.268000</v>
+        <v>-144.268</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>42901.857559</v>
+        <v>42901.857558999996</v>
       </c>
       <c r="Q25" s="1">
         <v>11.917183</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.670000</v>
+        <v>1208.67</v>
       </c>
       <c r="S25" s="1">
-        <v>-124.282000</v>
+        <v>-124.282</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>42912.298313</v>
+        <v>42912.298312999999</v>
       </c>
       <c r="V25" s="1">
         <v>11.920083</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.300000</v>
+        <v>1216.3</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.209000</v>
+        <v>-105.209</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>42922.789691</v>
+        <v>42922.789690999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.922997</v>
+        <v>11.922997000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.721000</v>
+        <v>-89.721000000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>42933.301901</v>
+        <v>42933.301900999999</v>
       </c>
       <c r="AF25" s="1">
         <v>11.925917</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.842000</v>
+        <v>-85.841999999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>42943.560194</v>
+        <v>42943.560193999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.928767</v>
+        <v>11.928767000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.753100</v>
+        <v>-89.753100000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>42954.537862</v>
+        <v>42954.537861999997</v>
       </c>
       <c r="AP25" s="1">
         <v>11.931816</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.015000</v>
+        <v>-102.015</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>42965.356355</v>
+        <v>42965.356355000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.934821</v>
+        <v>11.934820999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.000000</v>
+        <v>1255</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.704000</v>
+        <v>-121.70399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>42976.319924</v>
+        <v>42976.319924000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.937867</v>
+        <v>11.937867000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.493000</v>
+        <v>-139.49299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>42987.394634</v>
+        <v>42987.394633999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.940943</v>
+        <v>11.940943000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.644000</v>
+        <v>-222.64400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>42998.424631</v>
+        <v>42998.424631000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>11.944007</v>
+        <v>11.944006999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.536000</v>
+        <v>-361.536</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>43008.661098</v>
+        <v>43008.661097999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.946850</v>
+        <v>11.94685</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.440000</v>
+        <v>1488.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-588.343000</v>
+        <v>-588.34299999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>43019.334973</v>
+        <v>43019.334972999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.949815</v>
+        <v>11.949814999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.950000</v>
+        <v>1621.95</v>
       </c>
       <c r="BV25" s="1">
-        <v>-844.921000</v>
+        <v>-844.92100000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>43030.209262</v>
+        <v>43030.209261999997</v>
       </c>
       <c r="BY25" s="1">
         <v>11.952836</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1125.070000</v>
+        <v>-1125.07</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>43043.428636</v>
+        <v>43043.428635999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.956508</v>
+        <v>11.956507999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2201.480000</v>
+        <v>2201.48</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1805.810000</v>
+        <v>-1805.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>42870.639328</v>
+        <v>42870.639327999997</v>
       </c>
       <c r="B26" s="1">
-        <v>11.908511</v>
+        <v>11.908511000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1156.660000</v>
+        <v>1156.6600000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-242.239000</v>
+        <v>-242.239</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>42881.117315</v>
+        <v>42881.117315000003</v>
       </c>
       <c r="G26" s="1">
-        <v>11.911421</v>
+        <v>11.911421000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1175.940000</v>
+        <v>1175.94</v>
       </c>
       <c r="I26" s="1">
-        <v>-204.435000</v>
+        <v>-204.435</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>42891.636468</v>
+        <v>42891.636467999997</v>
       </c>
       <c r="L26" s="1">
-        <v>11.914343</v>
+        <v>11.914343000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="N26" s="1">
-        <v>-144.308000</v>
+        <v>-144.30799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>42902.515754</v>
@@ -6694,118 +7110,118 @@
         <v>11.917365</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.610000</v>
+        <v>1208.6099999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-124.247000</v>
+        <v>-124.247</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>42912.958490</v>
+        <v>42912.958489999997</v>
       </c>
       <c r="V26" s="1">
         <v>11.920266</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.164000</v>
+        <v>-105.164</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>42923.185004</v>
+        <v>42923.185003999999</v>
       </c>
       <c r="AA26" s="1">
         <v>11.923107</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.724400</v>
+        <v>-89.724400000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>42933.657037</v>
+        <v>42933.657036999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.926016</v>
+        <v>11.926016000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.851300</v>
+        <v>-85.851299999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>42943.907855</v>
+        <v>42943.907854999998</v>
       </c>
       <c r="AK26" s="1">
         <v>11.928863</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.769700</v>
+        <v>-89.7697</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>42954.897746</v>
+        <v>42954.897746000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.931916</v>
+        <v>11.931915999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>42965.718454</v>
+        <v>42965.718454000002</v>
       </c>
       <c r="AU26" s="1">
         <v>11.934922</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.990000</v>
+        <v>1254.99</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.705000</v>
+        <v>-121.705</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>42976.743013</v>
+        <v>42976.743012999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.937984</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.508000</v>
+        <v>-139.50800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>42987.688725</v>
@@ -6814,90 +7230,91 @@
         <v>11.941025</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.655000</v>
+        <v>-222.655</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>42998.770344</v>
+        <v>42998.770343999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.944103</v>
       </c>
       <c r="BK26" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.507000</v>
+        <v>-361.50700000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>43009.081705</v>
+        <v>43009.081704999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.946967</v>
+        <v>11.946967000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.450000</v>
+        <v>1488.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-588.419000</v>
+        <v>-588.41899999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>43019.763547</v>
+        <v>43019.763547000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.949934</v>
+        <v>11.949934000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.940000</v>
+        <v>1621.94</v>
       </c>
       <c r="BV26" s="1">
-        <v>-844.991000</v>
+        <v>-844.99099999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>43030.633838</v>
+        <v>43030.633838000002</v>
       </c>
       <c r="BY26" s="1">
         <v>11.952954</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1125.120000</v>
+        <v>-1125.1199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>43043.947983</v>
+        <v>43043.947982999998</v>
       </c>
       <c r="CD26" s="1">
         <v>11.956652</v>
       </c>
       <c r="CE26" s="1">
-        <v>2201.260000</v>
+        <v>2201.2600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1805.630000</v>
+        <v>-1805.63</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>